--- a/linjeimpedanser.xlsx
+++ b/linjeimpedanser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arntzen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199D234E-CB07-7D47-9ACE-D338E1CACB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374419D9-5EA0-C64A-9ABD-5CFAE51D3002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Linje</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Impedans (p.u.)</t>
   </si>
   <si>
+    <t>Admittans (p.u.)</t>
+  </si>
+  <si>
     <t>Kapasitans (nF)</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>(0.0102+0.1094j)</t>
   </si>
   <si>
+    <t>(0.8429-9.0614j)</t>
+  </si>
+  <si>
     <t>2-3</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
     <t>(0.0084+0.0898j)</t>
   </si>
   <si>
+    <t>(1.0268-11.0376j)</t>
+  </si>
+  <si>
     <t>3-4</t>
   </si>
   <si>
@@ -61,6 +70,9 @@
     <t>(0.0212+0.2284j)</t>
   </si>
   <si>
+    <t>(0.4038-4.3411j)</t>
+  </si>
+  <si>
     <t>4-5</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
     <t>(0.004+0.0444j)</t>
   </si>
   <si>
+    <t>(2.0322-22.3547j)</t>
+  </si>
+  <si>
     <t>5-6</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t>(0.0158+0.2532j)</t>
   </si>
   <si>
+    <t>(0.2459-3.9348j)</t>
+  </si>
+  <si>
     <t>6-7</t>
   </si>
   <si>
@@ -88,6 +106,9 @@
     <t>(0.0121+0.1934j)</t>
   </si>
   <si>
+    <t>(0.3219-5.1499j)</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
@@ -97,6 +118,9 @@
     <t>(0.022+0.236j)</t>
   </si>
   <si>
+    <t>(0.3907-4.2005j)</t>
+  </si>
+  <si>
     <t>1-8</t>
   </si>
   <si>
@@ -106,6 +130,9 @@
     <t>(0.047+0.5055j)</t>
   </si>
   <si>
+    <t>(0.1824-1.9613j)</t>
+  </si>
+  <si>
     <t>1-6</t>
   </si>
   <si>
@@ -113,6 +140,9 @@
   </si>
   <si>
     <t>(0.0519+0.5576j)</t>
+  </si>
+  <si>
+    <t>(0.1654-1.7781j)</t>
   </si>
 </sst>
 </file>
@@ -131,6 +161,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -475,20 +506,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,130 +532,160 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
         <v>812</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
         <v>620</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
         <v>920</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
         <v>1015</v>
       </c>
     </row>

--- a/linjeimpedanser.xlsx
+++ b/linjeimpedanser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arntzen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arntzen/Desktop/IELET2118---Prosjekt-Lastflytanalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374419D9-5EA0-C64A-9ABD-5CFAE51D3002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F82FEC1-F8AB-6C4C-A3AF-972333F8C9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -517,6 +517,7 @@
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">

--- a/linjeimpedanser.xlsx
+++ b/linjeimpedanser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arntzen/Desktop/IELET2118---Prosjekt-Lastflytanalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F82FEC1-F8AB-6C4C-A3AF-972333F8C9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D1E4D4-9E93-714A-91B4-64814E64DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Linje</t>
   </si>
@@ -37,6 +37,15 @@
     <t>Kapasitans (nF)</t>
   </si>
   <si>
+    <t>Shunt Admittans (ohm)</t>
+  </si>
+  <si>
+    <t>Shunt Admittans (p.u.)</t>
+  </si>
+  <si>
+    <t>Shunt Admittans (p.u.) half</t>
+  </si>
+  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -49,6 +58,15 @@
     <t>(0.8429-9.0614j)</t>
   </si>
   <si>
+    <t>62589.9504j</t>
+  </si>
+  <si>
+    <t>695.4439j</t>
+  </si>
+  <si>
+    <t>347.7219j</t>
+  </si>
+  <si>
     <t>2-3</t>
   </si>
   <si>
@@ -61,6 +79,15 @@
     <t>(1.0268-11.0376j)</t>
   </si>
   <si>
+    <t>51383.8894j</t>
+  </si>
+  <si>
+    <t>570.9321j</t>
+  </si>
+  <si>
+    <t>285.4661j</t>
+  </si>
+  <si>
     <t>3-4</t>
   </si>
   <si>
@@ -73,6 +100,15 @@
     <t>(0.4038-4.3411j)</t>
   </si>
   <si>
+    <t>130646.2721j</t>
+  </si>
+  <si>
+    <t>1451.6252j</t>
+  </si>
+  <si>
+    <t>725.8126j</t>
+  </si>
+  <si>
     <t>4-5</t>
   </si>
   <si>
@@ -85,6 +121,15 @@
     <t>(2.0322-22.3547j)</t>
   </si>
   <si>
+    <t>42954.9964j</t>
+  </si>
+  <si>
+    <t>477.2777j</t>
+  </si>
+  <si>
+    <t>238.6389j</t>
+  </si>
+  <si>
     <t>5-6</t>
   </si>
   <si>
@@ -97,6 +142,15 @@
     <t>(0.2459-3.9348j)</t>
   </si>
   <si>
+    <t>254996.7925j</t>
+  </si>
+  <si>
+    <t>2833.2977j</t>
+  </si>
+  <si>
+    <t>1416.6488j</t>
+  </si>
+  <si>
     <t>6-7</t>
   </si>
   <si>
@@ -109,6 +163,15 @@
     <t>(0.3219-5.1499j)</t>
   </si>
   <si>
+    <t>194829.01j</t>
+  </si>
+  <si>
+    <t>2164.7668j</t>
+  </si>
+  <si>
+    <t>1082.3834j</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
@@ -121,6 +184,15 @@
     <t>(0.3907-4.2005j)</t>
   </si>
   <si>
+    <t>135019.3691j</t>
+  </si>
+  <si>
+    <t>1500.2152j</t>
+  </si>
+  <si>
+    <t>750.1076j</t>
+  </si>
+  <si>
     <t>1-8</t>
   </si>
   <si>
@@ -133,6 +205,15 @@
     <t>(0.1824-1.9613j)</t>
   </si>
   <si>
+    <t>289171.0374j</t>
+  </si>
+  <si>
+    <t>3213.0115j</t>
+  </si>
+  <si>
+    <t>1606.5058j</t>
+  </si>
+  <si>
     <t>1-6</t>
   </si>
   <si>
@@ -143,6 +224,15 @@
   </si>
   <si>
     <t>(0.1654-1.7781j)</t>
+  </si>
+  <si>
+    <t>318962.7605j</t>
+  </si>
+  <si>
+    <t>3544.0307j</t>
+  </si>
+  <si>
+    <t>1772.0153j</t>
   </si>
 </sst>
 </file>
@@ -161,7 +251,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,21 +595,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,158 +628,248 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>164</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>416</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>812</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>620</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>430</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>920</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>1015</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/linjeimpedanser.xlsx
+++ b/linjeimpedanser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arntzen/Desktop/IELET2118---Prosjekt-Lastflytanalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D1E4D4-9E93-714A-91B4-64814E64DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D76A393-B728-CE4C-95EA-51C2694ADEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>Linje</t>
   </si>
@@ -37,13 +37,16 @@
     <t>Kapasitans (nF)</t>
   </si>
   <si>
-    <t>Shunt Admittans (ohm)</t>
+    <t>Shunt Impedans (ohm)</t>
+  </si>
+  <si>
+    <t>Shunt Admittans (S)</t>
   </si>
   <si>
     <t>Shunt Admittans (p.u.)</t>
   </si>
   <si>
-    <t>Shunt Admittans (p.u.) half</t>
+    <t>Shunt Admittans (p.u.) / 2</t>
   </si>
   <si>
     <t>1-2</t>
@@ -58,13 +61,16 @@
     <t>(0.8429-9.0614j)</t>
   </si>
   <si>
-    <t>62589.9504j</t>
-  </si>
-  <si>
-    <t>695.4439j</t>
-  </si>
-  <si>
-    <t>347.7219j</t>
+    <t>-15977.0058j</t>
+  </si>
+  <si>
+    <t>0.0001j</t>
+  </si>
+  <si>
+    <t>0.0056j</t>
+  </si>
+  <si>
+    <t>0.0028j</t>
   </si>
   <si>
     <t>2-3</t>
@@ -79,13 +85,13 @@
     <t>(1.0268-11.0376j)</t>
   </si>
   <si>
-    <t>51383.8894j</t>
-  </si>
-  <si>
-    <t>570.9321j</t>
-  </si>
-  <si>
-    <t>285.4661j</t>
+    <t>-19461.3528j</t>
+  </si>
+  <si>
+    <t>0.0046j</t>
+  </si>
+  <si>
+    <t>0.0023j</t>
   </si>
   <si>
     <t>3-4</t>
@@ -100,13 +106,13 @@
     <t>(0.4038-4.3411j)</t>
   </si>
   <si>
-    <t>130646.2721j</t>
-  </si>
-  <si>
-    <t>1451.6252j</t>
-  </si>
-  <si>
-    <t>725.8126j</t>
+    <t>-7654.2559j</t>
+  </si>
+  <si>
+    <t>0.0118j</t>
+  </si>
+  <si>
+    <t>0.0059j</t>
   </si>
   <si>
     <t>4-5</t>
@@ -121,13 +127,16 @@
     <t>(2.0322-22.3547j)</t>
   </si>
   <si>
-    <t>42954.9964j</t>
-  </si>
-  <si>
-    <t>477.2777j</t>
-  </si>
-  <si>
-    <t>238.6389j</t>
+    <t>-23280.1789j</t>
+  </si>
+  <si>
+    <t>0j</t>
+  </si>
+  <si>
+    <t>0.0039j</t>
+  </si>
+  <si>
+    <t>0.0019j</t>
   </si>
   <si>
     <t>5-6</t>
@@ -142,13 +151,16 @@
     <t>(0.2459-3.9348j)</t>
   </si>
   <si>
-    <t>254996.7925j</t>
-  </si>
-  <si>
-    <t>2833.2977j</t>
-  </si>
-  <si>
-    <t>1416.6488j</t>
+    <t>-3921.618j</t>
+  </si>
+  <si>
+    <t>0.0003j</t>
+  </si>
+  <si>
+    <t>0.0229j</t>
+  </si>
+  <si>
+    <t>0.0115j</t>
   </si>
   <si>
     <t>6-7</t>
@@ -163,13 +175,16 @@
     <t>(0.3219-5.1499j)</t>
   </si>
   <si>
-    <t>194829.01j</t>
-  </si>
-  <si>
-    <t>2164.7668j</t>
-  </si>
-  <si>
-    <t>1082.3834j</t>
+    <t>-5132.7059j</t>
+  </si>
+  <si>
+    <t>0.0002j</t>
+  </si>
+  <si>
+    <t>0.0175j</t>
+  </si>
+  <si>
+    <t>0.0088j</t>
   </si>
   <si>
     <t>7-8</t>
@@ -184,13 +199,13 @@
     <t>(0.3907-4.2005j)</t>
   </si>
   <si>
-    <t>135019.3691j</t>
-  </si>
-  <si>
-    <t>1500.2152j</t>
-  </si>
-  <si>
-    <t>750.1076j</t>
+    <t>-7406.3448j</t>
+  </si>
+  <si>
+    <t>0.0122j</t>
+  </si>
+  <si>
+    <t>0.0061j</t>
   </si>
   <si>
     <t>1-8</t>
@@ -205,13 +220,13 @@
     <t>(0.1824-1.9613j)</t>
   </si>
   <si>
-    <t>289171.0374j</t>
-  </si>
-  <si>
-    <t>3213.0115j</t>
-  </si>
-  <si>
-    <t>1606.5058j</t>
+    <t>-3458.161j</t>
+  </si>
+  <si>
+    <t>0.026j</t>
+  </si>
+  <si>
+    <t>0.013j</t>
   </si>
   <si>
     <t>1-6</t>
@@ -226,13 +241,13 @@
     <t>(0.1654-1.7781j)</t>
   </si>
   <si>
-    <t>318962.7605j</t>
-  </si>
-  <si>
-    <t>3544.0307j</t>
-  </si>
-  <si>
-    <t>1772.0153j</t>
+    <t>-3135.1622j</t>
+  </si>
+  <si>
+    <t>0.0287j</t>
+  </si>
+  <si>
+    <t>0.0144j</t>
   </si>
 </sst>
 </file>
@@ -595,24 +610,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,239 +653,269 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>416</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>812</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>620</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>920</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>1015</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/linjeimpedanser.xlsx
+++ b/linjeimpedanser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arntzen/Desktop/IELET2118---Prosjekt-Lastflytanalyse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D76A393-B728-CE4C-95EA-51C2694ADEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10593C58-D0DE-4153-8A1B-AAEBEAC49CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,22 +613,22 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -686,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -715,7 +715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -744,7 +744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -773,7 +773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -802,7 +802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -831,7 +831,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -860,7 +860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -889,7 +889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -920,5 +920,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/linjeimpedanser.xlsx
+++ b/linjeimpedanser.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10593C58-D0DE-4153-8A1B-AAEBEAC49CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA20D0B-A05D-4FBE-BCD8-050AE26B4B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Avrundet" sheetId="1" r:id="rId1"/>
+    <sheet name="Uten avrunding" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
   <si>
     <t>Linje</t>
   </si>
@@ -248,6 +249,183 @@
   </si>
   <si>
     <t>0.0144j</t>
+  </si>
+  <si>
+    <t>0.014353324223684316j</t>
+  </si>
+  <si>
+    <t>0.028706648447368633j</t>
+  </si>
+  <si>
+    <t>0.00031896276052631814j</t>
+  </si>
+  <si>
+    <t>-3135.162231321008j</t>
+  </si>
+  <si>
+    <t>(0.16540659007422623-1.7781208432979319j)</t>
+  </si>
+  <si>
+    <t>(0.05186666666666667+0.5575666666666667j)</t>
+  </si>
+  <si>
+    <t>0.013012696682654675j</t>
+  </si>
+  <si>
+    <t>0.02602539336530935j</t>
+  </si>
+  <si>
+    <t>0.0002891710373923261j</t>
+  </si>
+  <si>
+    <t>-3458.160986721755j</t>
+  </si>
+  <si>
+    <t>(0.182447533664104-1.9613109868891176j)</t>
+  </si>
+  <si>
+    <t>(0.04702222222222223+0.5054888888888889j)</t>
+  </si>
+  <si>
+    <t>0.006075871607969196j</t>
+  </si>
+  <si>
+    <t>0.012151743215938392j</t>
+  </si>
+  <si>
+    <t>0.00013501936906598212j</t>
+  </si>
+  <si>
+    <t>-7406.34478532716j</t>
+  </si>
+  <si>
+    <t>(0.3907479567138098-4.200540534673455j)</t>
+  </si>
+  <si>
+    <t>(0.021955555555555555+0.2360222222222222j)</t>
+  </si>
+  <si>
+    <t>(1.976+21.241999999999997j)</t>
+  </si>
+  <si>
+    <t>0.008767305450226108j</t>
+  </si>
+  <si>
+    <t>0.017534610900452215j</t>
+  </si>
+  <si>
+    <t>0.0001948290100050246j</t>
+  </si>
+  <si>
+    <t>-5132.7058530668j</t>
+  </si>
+  <si>
+    <t>(0.3218699931334401-5.149919890135042j)</t>
+  </si>
+  <si>
+    <t>(0.01208888888888889+0.19342222222222225j)</t>
+  </si>
+  <si>
+    <t>0.011474855662795937j</t>
+  </si>
+  <si>
+    <t>0.022949711325591874j</t>
+  </si>
+  <si>
+    <t>0.0002549967925065764j</t>
+  </si>
+  <si>
+    <t>-3921.6179551521614j</t>
+  </si>
+  <si>
+    <t>(0.24592314082105537-3.934770253136886j)</t>
+  </si>
+  <si>
+    <t>(0.015822222222222224+0.2531555555555556j)</t>
+  </si>
+  <si>
+    <t>(1.4240000000000002+22.784000000000002j)</t>
+  </si>
+  <si>
+    <t>0.0019329748358639966j</t>
+  </si>
+  <si>
+    <t>0.003865949671727993j</t>
+  </si>
+  <si>
+    <t>4.2954996352533256e-05j</t>
+  </si>
+  <si>
+    <t>-23280.17890615012j</t>
+  </si>
+  <si>
+    <t>(2.0322449532583664-22.35469448584203j)</t>
+  </si>
+  <si>
+    <t>(0.004033333333333333+0.044366666666666665j)</t>
+  </si>
+  <si>
+    <t>0.005879082244148331j</t>
+  </si>
+  <si>
+    <t>0.011758164488296662j</t>
+  </si>
+  <si>
+    <t>0.00013064627209218512j</t>
+  </si>
+  <si>
+    <t>-7654.255907848572j</t>
+  </si>
+  <si>
+    <t>(0.4038273862272426-4.341144401942858j)</t>
+  </si>
+  <si>
+    <t>(0.021244444444444444+0.22837777777777776j)</t>
+  </si>
+  <si>
+    <t>0.00231227502489516j</t>
+  </si>
+  <si>
+    <t>0.00462455004979032j</t>
+  </si>
+  <si>
+    <t>5.1383889442114665e-05j</t>
+  </si>
+  <si>
+    <t>-19461.352786976684j</t>
+  </si>
+  <si>
+    <t>(1.0267526096628827-11.03759055387599j)</t>
+  </si>
+  <si>
+    <t>(0.008355555555555555+0.08982222222222222j)</t>
+  </si>
+  <si>
+    <t>0.0028165477696861247j</t>
+  </si>
+  <si>
+    <t>0.005633095539372249j</t>
+  </si>
+  <si>
+    <t>6.258995043746944e-05j</t>
+  </si>
+  <si>
+    <t>-15977.005781448112j</t>
+  </si>
+  <si>
+    <t>(0.8429235398105763-9.061428052963697j)</t>
+  </si>
+  <si>
+    <t>(0.010177777777777777+0.10941111111111111j)</t>
+  </si>
+  <si>
+    <t>(0.9159999999999999+9.847j)</t>
+  </si>
+  <si>
+    <t>Shunt Admittans (p.u.) half</t>
+  </si>
+  <si>
+    <t>Shunt Admittans (ohm)</t>
   </si>
 </sst>
 </file>
@@ -612,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,4 +1100,319 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5E29F1-5A03-430E-88F2-5C58EFA16EE5}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2">
+        <v>199.23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3">
+        <v>163.56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4">
+        <v>415.86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>136.72999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6">
+        <v>811.68000000000006</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7">
+        <v>620.16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8">
+        <v>429.78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <v>920.45999999999992</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>1015.29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/linjeimpedanser.xlsx
+++ b/linjeimpedanser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF187D2-5635-41D4-9E36-0140FEBEF64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092C9B3B-5552-4A78-A8FB-335DF4778350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Case" sheetId="1" r:id="rId1"/>
@@ -294,6 +294,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,12 +332,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,19 +648,19 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -692,28 +696,28 @@
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>199.23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -721,28 +725,28 @@
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>163.56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -750,28 +754,28 @@
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>415.86</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -779,28 +783,28 @@
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>136.72999999999999</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -808,28 +812,28 @@
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>811.68000000000006</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -837,28 +841,28 @@
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>620.16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -866,28 +870,28 @@
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>429.78</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -895,28 +899,28 @@
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>920.45999999999992</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -924,28 +928,28 @@
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>1015.29</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>71</v>
       </c>
     </row>

--- a/linjeimpedanser.xlsx
+++ b/linjeimpedanser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Desktop\IELET2118---Prosjekt-Lastflytanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092C9B3B-5552-4A78-A8FB-335DF4778350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF187D2-5635-41D4-9E36-0140FEBEF64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Case" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,15 +331,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -648,19 +644,19 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -696,28 +692,28 @@
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>199.23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -725,28 +721,28 @@
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>163.56</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -754,28 +750,28 @@
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>415.86</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -783,28 +779,28 @@
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>136.72999999999999</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -812,28 +808,28 @@
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>811.68000000000006</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -841,28 +837,28 @@
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>620.16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -870,28 +866,28 @@
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>429.78</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -899,28 +895,28 @@
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>920.45999999999992</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -928,28 +924,28 @@
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>1015.29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
     </row>
